--- a/public_html/ADG/AGpredicates.xlsx
+++ b/public_html/ADG/AGpredicates.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,7 +459,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>physicalDamage(_)</t>
+          <t>execCode('192.168.245.24',andrew)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,7 +477,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>RULE 2 (Physical damage)</t>
+          <t>RULE 9 (remote exploit of a server program)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -495,7 +495,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>modify('157.159.68.97',_)</t>
+          <t>netAccess('192.168.245.24',tcp,35324)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -513,7 +513,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>RULE 3 (Modify bus info)</t>
+          <t>RULE 12 (multi-hop access)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -531,12 +531,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>obtainControl('157.159.68.97',admin)</t>
+          <t>hacl('192.168.245.24','192.168.245.24',tcp,35324)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>OR</t>
+          <t>LEAF</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>RULE 4 (Obtain control of network traffic)</t>
+          <t>RULE 13 (direct network access)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -567,7 +567,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ipv6Able('157.159.68.97')</t>
+          <t>hacl('13.225.195.118','192.168.245.24',tcp,35324)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -585,12 +585,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>execCode('157.159.68.75',admin)</t>
+          <t>attackerLocated('13.225.195.118')</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>OR</t>
+          <t>LEAF</t>
         </is>
       </c>
     </row>
@@ -603,12 +603,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>RULE 5 (Remote login on host by reusing credentials)</t>
+          <t>networkServiceInfo('192.168.245.24',microsoft,tcp,35324,andrew)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>AND</t>
+          <t>LEAF</t>
         </is>
       </c>
     </row>
@@ -621,244 +621,10 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>harvestCredentials('157.159.68.125',admin)</t>
+          <t>vulExists('192.168.245.24','CVE-2012-0002',microsoft,remoteExploit,privEscalation)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
-        <is>
-          <t>OR</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>11</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>RULE 6 (Credentials harvesting of the last user connected remotely)</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>AND</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>12</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>hasCredentialsOnMemory('157.159.68.125',admin)</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>LEAF</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>13</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>execCode('157.159.68.125',olivia)</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>OR</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>14</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>RULE 9 (remote exploit of a server program)</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>AND</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>15</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>netAccess('157.159.68.125',tcp,'3389')</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>OR</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>16</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>RULE 12 (multi-hop access)</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>AND</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>17</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>hacl('157.159.68.75','157.159.68.125',tcp,'3389')</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>LEAF</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>18</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>RULE 13 (direct network access)</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>AND</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>19</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>attackerLocated('157.159.68.75')</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>LEAF</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>20</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>networkServiceInfo('157.159.68.125','windows remote_desktop_protocol',tcp,'3389',olivia)</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>LEAF</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>21</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>vulExists('157.159.68.125','CVE-2019-0708','windows remote_desktop_protocol',remoteExploit,privEscalation)</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>LEAF</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>22</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>networkServiceInfo('157.159.68.75',windows,tcp,'3389',admin)</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>LEAF</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>23</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>isAdmin(admin)</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
         <is>
           <t>LEAF</t>
         </is>

--- a/public_html/ADG/AGpredicates.xlsx
+++ b/public_html/ADG/AGpredicates.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,7 +459,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>execCode('192.168.245.24',andrew)</t>
+          <t>execCode('192.168.32.192',someUser)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -495,7 +495,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>netAccess('192.168.245.24',tcp,35324)</t>
+          <t>netAccess('192.168.32.192',tcp,'443')</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>hacl('192.168.245.24','192.168.245.24',tcp,35324)</t>
+          <t>hacl('192.168.32.192','192.168.32.192',tcp,'443')</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -549,7 +549,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>RULE 13 (direct network access)</t>
+          <t>RULE 12 (multi-hop access)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -567,12 +567,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>hacl('13.225.195.118','192.168.245.24',tcp,35324)</t>
+          <t>execCode('192.168.32.192',user)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LEAF</t>
+          <t>OR</t>
         </is>
       </c>
     </row>
@@ -585,12 +585,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>attackerLocated('13.225.195.118')</t>
+          <t>RULE 10 (remote exploit for a client program)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LEAF</t>
+          <t>AND</t>
         </is>
       </c>
     </row>
@@ -603,12 +603,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>networkServiceInfo('192.168.245.24',microsoft,tcp,35324,andrew)</t>
+          <t>accessMaliciousInput('192.168.32.192','192.168.32.192_victim',network_camera_firmware)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LEAF</t>
+          <t>OR</t>
         </is>
       </c>
     </row>
@@ -621,12 +621,822 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>vulExists('192.168.245.24','CVE-2012-0002',microsoft,remoteExploit,privEscalation)</t>
+          <t>RULE 29 (Browsing a malicious website)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LEAF</t>
+          <t>AND</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>attackerLocated(internet)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>LEAF</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>hacl('192.168.32.192',internet,httpProtocol,httpPort)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>LEAF</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>inCompetent('192.168.32.192_victim')</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>LEAF</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>hasAccount('192.168.32.192_victim','192.168.32.192',user)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>LEAF</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>vulExists('192.168.32.192','CVE-2021-31986',network_camera_firmware,remoteClient,privEscalation)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>LEAF</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>RULE 10 (remote exploit for a client program)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>AND</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>vulExists('192.168.32.192','CVE-2021-31987',network_camera_firmware,remoteClient,privEscalation)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>LEAF</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>18</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>RULE 10 (remote exploit for a client program)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>AND</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>19</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>vulExists('192.168.32.192','CVE-2021-31988',network_camera_firmware,remoteClient,privEscalation)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>LEAF</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>20</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>RULE 7 (When a principal is compromised any machine he has an account on will also be compromised)</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>AND</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>21</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>canAccessHost('192.168.32.192')</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>OR</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>22</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>RULE 15 (Access a host through executing code on the machine)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>AND</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>23</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>RULE 15 (Access a host through executing code on the machine)</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>AND</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>24</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>principalCompromised('192.168.32.192_victim')</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>OR</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>25</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>RULE 19 (password sniffing)</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>AND</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>26</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>RULE 13 (direct network access)</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>AND</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>27</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>hacl(internet,'192.168.32.192',tcp,'443')</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>LEAF</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>28</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>networkServiceInfo('192.168.32.192',no_products,tcp,'443',someUser)</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>LEAF</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>29</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>vulExists('192.168.32.192','CVE-XXXX-XXXX',no_products,remoteExploit,privEscalation)</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>LEAF</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>30</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>RULE 9 (remote exploit of a server program)</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>AND</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>31</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>networkServiceInfo('192.168.32.192',openssl,tcp,'443',someUser)</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>LEAF</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>32</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>vulExists('192.168.32.192','CVE-2021-3449',openssl,remoteExploit,privEscalation)</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>LEAF</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>33</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>RULE 9 (remote exploit of a server program)</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>AND</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>34</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>vulExists('192.168.32.192','CVE-2021-3450',openssl,remoteExploit,privEscalation)</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>LEAF</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>35</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>RULE 9 (remote exploit of a server program)</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>AND</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>36</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>vulExists('192.168.32.192','CVE-2021-3711',openssl,remoteExploit,privEscalation)</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>LEAF</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>37</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>RULE 9 (remote exploit of a server program)</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>AND</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>38</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>vulExists('192.168.32.192','CVE-2021-3712',openssl,remoteExploit,privEscalation)</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>LEAF</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>39</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>RULE 9 (remote exploit of a server program)</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>AND</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>40</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>vulExists('192.168.32.192','CVE-2022-1292',openssl,remoteExploit,privEscalation)</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>LEAF</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>41</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>RULE 9 (remote exploit of a server program)</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>AND</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>42</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>vulExists('192.168.32.192','CVE-2022-2068',openssl,remoteExploit,privEscalation)</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>LEAF</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>43</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>RULE 9 (remote exploit of a server program)</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>AND</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>44</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>netAccess('192.168.32.192',tcp,'80')</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>OR</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>45</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>RULE 12 (multi-hop access)</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>AND</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>46</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>hacl('192.168.32.192','192.168.32.192',tcp,'80')</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>LEAF</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>47</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>RULE 12 (multi-hop access)</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>AND</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>48</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>RULE 13 (direct network access)</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>AND</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>49</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>hacl(internet,'192.168.32.192',tcp,'80')</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>LEAF</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>50</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>networkServiceInfo('192.168.32.192',openssl,tcp,'80',someUser)</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>LEAF</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>51</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>RULE 9 (remote exploit of a server program)</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>AND</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>52</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>RULE 9 (remote exploit of a server program)</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>AND</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>53</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>RULE 9 (remote exploit of a server program)</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>AND</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>54</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>RULE 9 (remote exploit of a server program)</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>AND</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>55</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>RULE 9 (remote exploit of a server program)</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>AND</t>
         </is>
       </c>
     </row>

--- a/public_html/ADG/AGpredicates.xlsx
+++ b/public_html/ADG/AGpredicates.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,7 +459,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>execCode('192.168.32.192',someUser)</t>
+          <t>execCode('192.168.128.40',root)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,7 +477,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>RULE 9 (remote exploit of a server program)</t>
+          <t>RULE 11 (Trojan horse installation)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -495,7 +495,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>netAccess('192.168.32.192',tcp,'443')</t>
+          <t>accessFile('192.168.128.40',write,_)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -513,7 +513,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>RULE 12 (multi-hop access)</t>
+          <t>RULE 24 (NFS shell)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>hacl('192.168.32.192','192.168.32.192',tcp,'443')</t>
+          <t>hacl('192.168.132.101','192.168.128.40',nfsProtocol,nfsPort)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -549,12 +549,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>RULE 12 (multi-hop access)</t>
+          <t>nfsExportInfo('192.168.128.40',_,write,'192.168.132.101')</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>AND</t>
+          <t>LEAF</t>
         </is>
       </c>
     </row>
@@ -567,7 +567,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>execCode('192.168.32.192',user)</t>
+          <t>execCode('192.168.132.101',_)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -585,7 +585,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>RULE 10 (remote exploit for a client program)</t>
+          <t>RULE 7 (When a principal is compromised any machine he has an account on will also be compromised)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -603,7 +603,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>accessMaliciousInput('192.168.32.192','192.168.32.192_victim',network_camera_firmware)</t>
+          <t>canAccessHost('192.168.132.101')</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>RULE 29 (Browsing a malicious website)</t>
+          <t>RULE 15 (Access a host through executing code on the machine)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -639,12 +639,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>attackerLocated(internet)</t>
+          <t>RULE 15 (Access a host through executing code on the machine)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LEAF</t>
+          <t>AND</t>
         </is>
       </c>
     </row>
@@ -657,12 +657,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>hacl('192.168.32.192',internet,httpProtocol,httpPort)</t>
+          <t>execCode('192.168.132.101',andrew)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LEAF</t>
+          <t>OR</t>
         </is>
       </c>
     </row>
@@ -675,12 +675,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>inCompetent('192.168.32.192_victim')</t>
+          <t>RULE 9 (remote exploit of a server program)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LEAF</t>
+          <t>AND</t>
         </is>
       </c>
     </row>
@@ -693,12 +693,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>hasAccount('192.168.32.192_victim','192.168.32.192',user)</t>
+          <t>netAccess('192.168.132.101',usb,14135)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LEAF</t>
+          <t>OR</t>
         </is>
       </c>
     </row>
@@ -711,12 +711,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>vulExists('192.168.32.192','CVE-2021-31986',network_camera_firmware,remoteClient,privEscalation)</t>
+          <t>RULE 12 (multi-hop access)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LEAF</t>
+          <t>AND</t>
         </is>
       </c>
     </row>
@@ -729,12 +729,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>RULE 10 (remote exploit for a client program)</t>
+          <t>hacl('192.168.128.40','192.168.132.101',usb,14135)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>AND</t>
+          <t>LEAF</t>
         </is>
       </c>
     </row>
@@ -747,12 +747,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>vulExists('192.168.32.192','CVE-2021-31987',network_camera_firmware,remoteClient,privEscalation)</t>
+          <t>RULE 12 (multi-hop access)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LEAF</t>
+          <t>AND</t>
         </is>
       </c>
     </row>
@@ -765,12 +765,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>RULE 10 (remote exploit for a client program)</t>
+          <t>hacl('192.168.132.101','192.168.132.101',usb,14135)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>AND</t>
+          <t>LEAF</t>
         </is>
       </c>
     </row>
@@ -783,12 +783,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>vulExists('192.168.32.192','CVE-2021-31988',network_camera_firmware,remoteClient,privEscalation)</t>
+          <t>RULE 12 (multi-hop access)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LEAF</t>
+          <t>AND</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>RULE 7 (When a principal is compromised any machine he has an account on will also be compromised)</t>
+          <t>RULE 13 (direct network access)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -819,12 +819,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>canAccessHost('192.168.32.192')</t>
+          <t>attackerLocated('192.168.132.101')</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>OR</t>
+          <t>LEAF</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>RULE 15 (Access a host through executing code on the machine)</t>
+          <t>RULE 14 (direct on-host access)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -855,12 +855,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>RULE 15 (Access a host through executing code on the machine)</t>
+          <t>networkServiceInfo('192.168.132.101',windows_7,usb,14135,andrew)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>AND</t>
+          <t>LEAF</t>
         </is>
       </c>
     </row>
@@ -873,12 +873,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>principalCompromised('192.168.32.192_victim')</t>
+          <t>vulExists('192.168.132.101','CVE-2013-3200',windows_7,remoteExploit,privEscalation)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>OR</t>
+          <t>LEAF</t>
         </is>
       </c>
     </row>
@@ -891,12 +891,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>RULE 19 (password sniffing)</t>
+          <t>hasAccount(_,'192.168.132.101',_)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>AND</t>
+          <t>LEAF</t>
         </is>
       </c>
     </row>
@@ -909,12 +909,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>RULE 13 (direct network access)</t>
+          <t>principalCompromised(_)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>AND</t>
+          <t>OR</t>
         </is>
       </c>
     </row>
@@ -927,12 +927,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>hacl(internet,'192.168.32.192',tcp,'443')</t>
+          <t>RULE 18 (password sniffing)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LEAF</t>
+          <t>AND</t>
         </is>
       </c>
     </row>
@@ -945,12 +945,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>networkServiceInfo('192.168.32.192',no_products,tcp,'443',someUser)</t>
+          <t>execCode('192.168.132.101',root)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LEAF</t>
+          <t>OR</t>
         </is>
       </c>
     </row>
@@ -963,12 +963,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>vulExists('192.168.32.192','CVE-XXXX-XXXX',no_products,remoteExploit,privEscalation)</t>
+          <t>RULE 7 (When a principal is compromised any machine he has an account on will also be compromised)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LEAF</t>
+          <t>AND</t>
         </is>
       </c>
     </row>
@@ -981,12 +981,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>RULE 9 (remote exploit of a server program)</t>
+          <t>hasAccount(_,'192.168.132.101',root)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>AND</t>
+          <t>LEAF</t>
         </is>
       </c>
     </row>
@@ -999,12 +999,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>networkServiceInfo('192.168.32.192',openssl,tcp,'443',someUser)</t>
+          <t>RULE 19 (password sniffing)</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LEAF</t>
+          <t>AND</t>
         </is>
       </c>
     </row>
@@ -1017,12 +1017,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>vulExists('192.168.32.192','CVE-2021-3449',openssl,remoteExploit,privEscalation)</t>
+          <t>RULE 19 (password sniffing)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LEAF</t>
+          <t>AND</t>
         </is>
       </c>
     </row>
@@ -1035,12 +1035,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>RULE 9 (remote exploit of a server program)</t>
+          <t>hasAccount(_,'192.168.132.101',andrew)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>AND</t>
+          <t>LEAF</t>
         </is>
       </c>
     </row>
@@ -1053,388 +1053,10 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>vulExists('192.168.32.192','CVE-2021-3450',openssl,remoteExploit,privEscalation)</t>
+          <t>RULE 24 (NFS shell)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
-        <is>
-          <t>LEAF</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>35</v>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>RULE 9 (remote exploit of a server program)</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>AND</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>36</v>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>vulExists('192.168.32.192','CVE-2021-3711',openssl,remoteExploit,privEscalation)</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>LEAF</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>37</v>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>RULE 9 (remote exploit of a server program)</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>AND</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>38</v>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>vulExists('192.168.32.192','CVE-2021-3712',openssl,remoteExploit,privEscalation)</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>LEAF</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>39</v>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>RULE 9 (remote exploit of a server program)</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>AND</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>40</v>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>vulExists('192.168.32.192','CVE-2022-1292',openssl,remoteExploit,privEscalation)</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>LEAF</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>41</v>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>RULE 9 (remote exploit of a server program)</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>AND</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>42</v>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>vulExists('192.168.32.192','CVE-2022-2068',openssl,remoteExploit,privEscalation)</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>LEAF</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>43</v>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>RULE 9 (remote exploit of a server program)</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>AND</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>44</v>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>netAccess('192.168.32.192',tcp,'80')</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>OR</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>45</v>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>RULE 12 (multi-hop access)</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>AND</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>46</v>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>hacl('192.168.32.192','192.168.32.192',tcp,'80')</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>LEAF</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>47</v>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>RULE 12 (multi-hop access)</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>AND</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>48</v>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>RULE 13 (direct network access)</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>AND</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>49</v>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>hacl(internet,'192.168.32.192',tcp,'80')</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>LEAF</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>50</v>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>networkServiceInfo('192.168.32.192',openssl,tcp,'80',someUser)</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>LEAF</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>51</v>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>RULE 9 (remote exploit of a server program)</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>AND</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>52</v>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>RULE 9 (remote exploit of a server program)</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>AND</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>53</v>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>RULE 9 (remote exploit of a server program)</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>AND</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>54</v>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>RULE 9 (remote exploit of a server program)</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>AND</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>55</v>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>RULE 9 (remote exploit of a server program)</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
         <is>
           <t>AND</t>
         </is>

--- a/public_html/ADG/AGpredicates.xlsx
+++ b/public_html/ADG/AGpredicates.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,7 +459,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>execCode('192.168.128.40',root)</t>
+          <t>physicalDamage(_)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,7 +477,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>RULE 11 (Trojan horse installation)</t>
+          <t>RULE 2 (Physical damage)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -495,7 +495,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>accessFile('192.168.128.40',write,_)</t>
+          <t>modify('157.159.68.97',_)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -513,7 +513,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>RULE 24 (NFS shell)</t>
+          <t>RULE 3 (Modify bus info)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -531,12 +531,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>hacl('192.168.132.101','192.168.128.40',nfsProtocol,nfsPort)</t>
+          <t>obtainControl('157.159.68.97',admin)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LEAF</t>
+          <t>OR</t>
         </is>
       </c>
     </row>
@@ -549,12 +549,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>nfsExportInfo('192.168.128.40',_,write,'192.168.132.101')</t>
+          <t>RULE 4 (Obtain control of network traffic)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LEAF</t>
+          <t>AND</t>
         </is>
       </c>
     </row>
@@ -567,12 +567,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>execCode('192.168.132.101',_)</t>
+          <t>ipv6Able('157.159.68.97')</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>OR</t>
+          <t>LEAF</t>
         </is>
       </c>
     </row>
@@ -585,12 +585,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>RULE 7 (When a principal is compromised any machine he has an account on will also be compromised)</t>
+          <t>execCode('157.159.68.75',admin)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>AND</t>
+          <t>OR</t>
         </is>
       </c>
     </row>
@@ -603,12 +603,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>canAccessHost('192.168.132.101')</t>
+          <t>RULE 5 (Remote login on host by reusing credentials)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>OR</t>
+          <t>AND</t>
         </is>
       </c>
     </row>
@@ -621,12 +621,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>RULE 15 (Access a host through executing code on the machine)</t>
+          <t>harvestCredentials('157.159.68.125',admin)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>AND</t>
+          <t>OR</t>
         </is>
       </c>
     </row>
@@ -639,7 +639,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>RULE 15 (Access a host through executing code on the machine)</t>
+          <t>RULE 6 (Credentials harvesting of the last user connected remotely)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>execCode('192.168.132.101',andrew)</t>
+          <t>hasCredentialsOnMemory('157.159.68.125',admin)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>OR</t>
+          <t>LEAF</t>
         </is>
       </c>
     </row>
@@ -675,12 +675,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>RULE 9 (remote exploit of a server program)</t>
+          <t>execCode('157.159.68.125',olivia)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>AND</t>
+          <t>OR</t>
         </is>
       </c>
     </row>
@@ -693,12 +693,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>netAccess('192.168.132.101',usb,14135)</t>
+          <t>RULE 9 (remote exploit of a server program)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>OR</t>
+          <t>AND</t>
         </is>
       </c>
     </row>
@@ -711,12 +711,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>RULE 12 (multi-hop access)</t>
+          <t>netAccess('157.159.68.125',tcp,'3389')</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>AND</t>
+          <t>OR</t>
         </is>
       </c>
     </row>
@@ -729,12 +729,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>hacl('192.168.128.40','192.168.132.101',usb,14135)</t>
+          <t>RULE 12 (multi-hop access)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LEAF</t>
+          <t>AND</t>
         </is>
       </c>
     </row>
@@ -747,12 +747,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>RULE 12 (multi-hop access)</t>
+          <t>hacl('157.159.68.75','157.159.68.125',tcp,'3389')</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>AND</t>
+          <t>LEAF</t>
         </is>
       </c>
     </row>
@@ -765,12 +765,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>hacl('192.168.132.101','192.168.132.101',usb,14135)</t>
+          <t>RULE 13 (direct network access)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LEAF</t>
+          <t>AND</t>
         </is>
       </c>
     </row>
@@ -783,12 +783,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>RULE 12 (multi-hop access)</t>
+          <t>attackerLocated('157.159.68.75')</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>AND</t>
+          <t>LEAF</t>
         </is>
       </c>
     </row>
@@ -801,12 +801,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>RULE 13 (direct network access)</t>
+          <t>networkServiceInfo('157.159.68.125','windows remote_desktop_protocol',tcp,'3389',olivia)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>AND</t>
+          <t>LEAF</t>
         </is>
       </c>
     </row>
@@ -819,7 +819,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>attackerLocated('192.168.132.101')</t>
+          <t>vulExists('157.159.68.125','CVE-2019-0708','windows remote_desktop_protocol',remoteExploit,privEscalation)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -837,12 +837,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>RULE 14 (direct on-host access)</t>
+          <t>networkServiceInfo('157.159.68.75',windows,tcp,'3389',admin)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>AND</t>
+          <t>LEAF</t>
         </is>
       </c>
     </row>
@@ -855,210 +855,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>networkServiceInfo('192.168.132.101',windows_7,usb,14135,andrew)</t>
+          <t>isAdmin(admin)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
           <t>LEAF</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>24</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>vulExists('192.168.132.101','CVE-2013-3200',windows_7,remoteExploit,privEscalation)</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>LEAF</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>25</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>hasAccount(_,'192.168.132.101',_)</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>LEAF</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>26</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>principalCompromised(_)</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>OR</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>27</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>RULE 18 (password sniffing)</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>AND</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>28</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>execCode('192.168.132.101',root)</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>OR</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>29</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>RULE 7 (When a principal is compromised any machine he has an account on will also be compromised)</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>AND</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>30</v>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>hasAccount(_,'192.168.132.101',root)</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>LEAF</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>31</v>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>RULE 19 (password sniffing)</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>AND</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>32</v>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>RULE 19 (password sniffing)</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>AND</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>33</v>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>hasAccount(_,'192.168.132.101',andrew)</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>LEAF</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>34</v>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>RULE 24 (NFS shell)</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>AND</t>
         </is>
       </c>
     </row>

--- a/public_html/ADG/AGpredicates.xlsx
+++ b/public_html/ADG/AGpredicates.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,7 +459,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>physicalDamage(_)</t>
+          <t>execCode('192.168.32.192',someUser)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,7 +477,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>RULE 2 (Physical damage)</t>
+          <t>RULE 9 (remote exploit of a server program)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -495,7 +495,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>modify('157.159.68.97',_)</t>
+          <t>netAccess('192.168.32.192',tcp,'443')</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -513,7 +513,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>RULE 3 (Modify bus info)</t>
+          <t>RULE 12 (multi-hop access)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -531,12 +531,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>obtainControl('157.159.68.97',admin)</t>
+          <t>hacl('192.168.32.192','192.168.32.192',tcp,'443')</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>OR</t>
+          <t>LEAF</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>RULE 4 (Obtain control of network traffic)</t>
+          <t>RULE 12 (multi-hop access)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -567,12 +567,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ipv6Able('157.159.68.97')</t>
+          <t>execCode('192.168.32.192',user)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LEAF</t>
+          <t>OR</t>
         </is>
       </c>
     </row>
@@ -585,12 +585,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>execCode('157.159.68.75',admin)</t>
+          <t>RULE 10 (remote exploit for a client program)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>OR</t>
+          <t>AND</t>
         </is>
       </c>
     </row>
@@ -603,12 +603,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>RULE 5 (Remote login on host by reusing credentials)</t>
+          <t>accessMaliciousInput('192.168.32.192','192.168.32.192_victim',network_camera_firmware)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>AND</t>
+          <t>OR</t>
         </is>
       </c>
     </row>
@@ -621,12 +621,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>harvestCredentials('157.159.68.125',admin)</t>
+          <t>RULE 29 (Browsing a malicious website)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>OR</t>
+          <t>AND</t>
         </is>
       </c>
     </row>
@@ -639,12 +639,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>RULE 6 (Credentials harvesting of the last user connected remotely)</t>
+          <t>attackerLocated(internet)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>AND</t>
+          <t>LEAF</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>hasCredentialsOnMemory('157.159.68.125',admin)</t>
+          <t>hacl('192.168.32.192',internet,httpProtocol,httpPort)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -675,12 +675,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>execCode('157.159.68.125',olivia)</t>
+          <t>inCompetent('192.168.32.192_victim')</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>OR</t>
+          <t>LEAF</t>
         </is>
       </c>
     </row>
@@ -693,12 +693,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>RULE 9 (remote exploit of a server program)</t>
+          <t>hasAccount('192.168.32.192_victim','192.168.32.192',user)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>AND</t>
+          <t>LEAF</t>
         </is>
       </c>
     </row>
@@ -711,12 +711,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>netAccess('157.159.68.125',tcp,'3389')</t>
+          <t>vulExists('192.168.32.192','CVE-2021-31986',network_camera_firmware,remoteClient,privEscalation)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>OR</t>
+          <t>LEAF</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>RULE 12 (multi-hop access)</t>
+          <t>RULE 10 (remote exploit for a client program)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>hacl('157.159.68.75','157.159.68.125',tcp,'3389')</t>
+          <t>vulExists('192.168.32.192','CVE-2021-31987',network_camera_firmware,remoteClient,privEscalation)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>RULE 13 (direct network access)</t>
+          <t>RULE 10 (remote exploit for a client program)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -783,7 +783,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>attackerLocated('157.159.68.75')</t>
+          <t>vulExists('192.168.32.192','CVE-2021-31988',network_camera_firmware,remoteClient,privEscalation)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>networkServiceInfo('157.159.68.125','windows remote_desktop_protocol',tcp,'3389',olivia)</t>
+          <t>RULE 7 (When a principal is compromised any machine he has an account on will also be compromised)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LEAF</t>
+          <t>AND</t>
         </is>
       </c>
     </row>
@@ -819,12 +819,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>vulExists('157.159.68.125','CVE-2019-0708','windows remote_desktop_protocol',remoteExploit,privEscalation)</t>
+          <t>canAccessHost('192.168.32.192')</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LEAF</t>
+          <t>OR</t>
         </is>
       </c>
     </row>
@@ -837,12 +837,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>networkServiceInfo('157.159.68.75',windows,tcp,'3389',admin)</t>
+          <t>RULE 15 (Access a host through executing code on the machine)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LEAF</t>
+          <t>AND</t>
         </is>
       </c>
     </row>
@@ -855,12 +855,588 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>isAdmin(admin)</t>
+          <t>RULE 15 (Access a host through executing code on the machine)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LEAF</t>
+          <t>AND</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>24</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>principalCompromised('192.168.32.192_victim')</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>OR</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>25</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>RULE 19 (password sniffing)</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>AND</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>26</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>RULE 13 (direct network access)</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>AND</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>27</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>hacl(internet,'192.168.32.192',tcp,'443')</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>LEAF</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>28</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>networkServiceInfo('192.168.32.192',no_products,tcp,'443',someUser)</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>LEAF</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>29</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>vulExists('192.168.32.192','CVE-XXXX-XXXX',no_products,remoteExploit,privEscalation)</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>LEAF</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>30</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>RULE 9 (remote exploit of a server program)</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>AND</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>31</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>networkServiceInfo('192.168.32.192',openssl,tcp,'443',someUser)</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>LEAF</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>32</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>vulExists('192.168.32.192','CVE-2021-3449',openssl,remoteExploit,privEscalation)</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>LEAF</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>33</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>RULE 9 (remote exploit of a server program)</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>AND</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>34</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>vulExists('192.168.32.192','CVE-2021-3450',openssl,remoteExploit,privEscalation)</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>LEAF</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>35</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>RULE 9 (remote exploit of a server program)</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>AND</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>36</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>vulExists('192.168.32.192','CVE-2021-3711',openssl,remoteExploit,privEscalation)</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>LEAF</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>37</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>RULE 9 (remote exploit of a server program)</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>AND</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>38</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>vulExists('192.168.32.192','CVE-2021-3712',openssl,remoteExploit,privEscalation)</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>LEAF</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>39</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>RULE 9 (remote exploit of a server program)</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>AND</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>40</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>vulExists('192.168.32.192','CVE-2022-1292',openssl,remoteExploit,privEscalation)</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>LEAF</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>41</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>RULE 9 (remote exploit of a server program)</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>AND</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>42</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>vulExists('192.168.32.192','CVE-2022-2068',openssl,remoteExploit,privEscalation)</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>LEAF</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>43</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>RULE 9 (remote exploit of a server program)</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>AND</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>44</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>netAccess('192.168.32.192',tcp,'80')</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>OR</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>45</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>RULE 12 (multi-hop access)</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>AND</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>46</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>hacl('192.168.32.192','192.168.32.192',tcp,'80')</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>LEAF</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>47</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>RULE 12 (multi-hop access)</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>AND</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>48</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>RULE 13 (direct network access)</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>AND</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>49</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>hacl(internet,'192.168.32.192',tcp,'80')</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>LEAF</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>50</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>networkServiceInfo('192.168.32.192',openssl,tcp,'80',someUser)</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>LEAF</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>51</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>RULE 9 (remote exploit of a server program)</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>AND</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>52</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>RULE 9 (remote exploit of a server program)</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>AND</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>53</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>RULE 9 (remote exploit of a server program)</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>AND</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>54</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>RULE 9 (remote exploit of a server program)</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>AND</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>55</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>RULE 9 (remote exploit of a server program)</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>AND</t>
         </is>
       </c>
     </row>

--- a/public_html/ADG/AGpredicates.xlsx
+++ b/public_html/ADG/AGpredicates.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,7 +459,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>execCode('192.168.128.40',root)</t>
+          <t>execCode('192.168.245.24',andrew)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,7 +477,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>RULE 11 (Trojan horse installation)</t>
+          <t>RULE 9 (remote exploit of a server program)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -495,7 +495,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>accessFile('192.168.128.40',write,_)</t>
+          <t>netAccess('192.168.245.24',tcp,35324)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -513,7 +513,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>RULE 24 (NFS shell)</t>
+          <t>RULE 12 (multi-hop access)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>hacl('192.168.132.101','192.168.128.40',nfsProtocol,nfsPort)</t>
+          <t>hacl('192.168.245.24','192.168.245.24',tcp,35324)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -549,12 +549,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>nfsExportInfo('192.168.128.40',_,write,'192.168.132.101')</t>
+          <t>RULE 13 (direct network access)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LEAF</t>
+          <t>AND</t>
         </is>
       </c>
     </row>
@@ -567,12 +567,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>execCode('192.168.132.101',_)</t>
+          <t>hacl('13.225.195.118','192.168.245.24',tcp,35324)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>OR</t>
+          <t>LEAF</t>
         </is>
       </c>
     </row>
@@ -585,12 +585,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>RULE 7 (When a principal is compromised any machine he has an account on will also be compromised)</t>
+          <t>attackerLocated('13.225.195.118')</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>AND</t>
+          <t>LEAF</t>
         </is>
       </c>
     </row>
@@ -603,12 +603,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>canAccessHost('192.168.132.101')</t>
+          <t>networkServiceInfo('192.168.245.24',microsoft,tcp,35324,andrew)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>OR</t>
+          <t>LEAF</t>
         </is>
       </c>
     </row>
@@ -621,444 +621,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>RULE 15 (Access a host through executing code on the machine)</t>
+          <t>vulExists('192.168.245.24','CVE-2012-0002',microsoft,remoteExploit,privEscalation)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>AND</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>11</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>RULE 15 (Access a host through executing code on the machine)</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>AND</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>12</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>execCode('192.168.132.101',andrew)</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>OR</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>13</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>RULE 9 (remote exploit of a server program)</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>AND</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>14</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>netAccess('192.168.132.101',usb,14135)</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>OR</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>15</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>RULE 12 (multi-hop access)</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>AND</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>16</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>hacl('192.168.128.40','192.168.132.101',usb,14135)</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
           <t>LEAF</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>17</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>RULE 12 (multi-hop access)</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>AND</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>18</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>hacl('192.168.132.101','192.168.132.101',usb,14135)</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>LEAF</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>19</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>RULE 12 (multi-hop access)</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>AND</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>20</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>RULE 13 (direct network access)</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>AND</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>21</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>attackerLocated('192.168.132.101')</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>LEAF</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>22</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>RULE 14 (direct on-host access)</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>AND</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>23</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>networkServiceInfo('192.168.132.101',windows_7,usb,14135,andrew)</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>LEAF</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>24</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>vulExists('192.168.132.101','CVE-2013-3200',windows_7,remoteExploit,privEscalation)</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>LEAF</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>25</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>hasAccount(_,'192.168.132.101',_)</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>LEAF</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>26</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>principalCompromised(_)</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>OR</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>27</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>RULE 18 (password sniffing)</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>AND</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>28</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>execCode('192.168.132.101',root)</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>OR</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>29</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>RULE 7 (When a principal is compromised any machine he has an account on will also be compromised)</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>AND</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>30</v>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>hasAccount(_,'192.168.132.101',root)</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>LEAF</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>31</v>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>RULE 19 (password sniffing)</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>AND</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>32</v>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>RULE 19 (password sniffing)</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>AND</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>33</v>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>hasAccount(_,'192.168.132.101',andrew)</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>LEAF</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>34</v>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>RULE 24 (NFS shell)</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>AND</t>
         </is>
       </c>
     </row>

--- a/public_html/ADG/AGpredicates.xlsx
+++ b/public_html/ADG/AGpredicates.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,7 +459,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>execCode('192.168.245.24',andrew)</t>
+          <t>execCode('10.0.11.100',user)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,7 +477,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>RULE 9 (remote exploit of a server program)</t>
+          <t>RULE 11 (unrestricted upload of file with dangerous type)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -495,7 +495,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>netAccess('192.168.245.24',tcp,35324)</t>
+          <t>principalCompromised('Bob')</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -513,7 +513,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>RULE 12 (multi-hop access)</t>
+          <t>RULE 2 (Bruteforce attack)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>hacl('192.168.245.24','192.168.245.24',tcp,35324)</t>
+          <t>hasAccount('Bob','10.0.11.100',user)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -549,12 +549,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>RULE 13 (direct network access)</t>
+          <t>netAccess('10.0.11.100',tcp,8080)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>AND</t>
+          <t>OR</t>
         </is>
       </c>
     </row>
@@ -567,12 +567,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>hacl('13.225.195.118','192.168.245.24',tcp,35324)</t>
+          <t>RULE 15 (direct network access)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LEAF</t>
+          <t>AND</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>attackerLocated('13.225.195.118')</t>
+          <t>hacl('10.0.20.66','10.0.11.100',tcp,8080)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -603,7 +603,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>networkServiceInfo('192.168.245.24',microsoft,tcp,35324,andrew)</t>
+          <t>attackerLocated('10.0.20.66')</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -621,12 +621,102 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>vulExists('192.168.245.24','CVE-2012-0002',microsoft,remoteExploit,privEscalation)</t>
+          <t>inCompetent('Bob')</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>LEAF</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>RULE 21 (password sniffing)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>AND</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>vulExists('10.0.11.100','CVE-2021-26868',scadabr,remoteExploit,privEscalation)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>LEAF</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>RULE 8 (When a principal is compromised any machine he has an account on will also be compromised)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>AND</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>canAccessHost('10.0.11.100')</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>OR</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>RULE 17 (Access a host through executing code on the machine)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>AND</t>
         </is>
       </c>
     </row>

--- a/public_html/ADG/AGpredicates.xlsx
+++ b/public_html/ADG/AGpredicates.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,7 +459,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>execCode('10.0.11.100',user)</t>
+          <t>execCode('192.168.245.24',andrew)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,7 +477,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>RULE 11 (unrestricted upload of file with dangerous type)</t>
+          <t>RULE 9 (remote exploit of a server program)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -495,7 +495,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>principalCompromised('Bob')</t>
+          <t>netAccess('192.168.245.24',tcp,35324)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -513,7 +513,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>RULE 2 (Bruteforce attack)</t>
+          <t>RULE 12 (multi-hop access)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>hasAccount('Bob','10.0.11.100',user)</t>
+          <t>hacl('192.168.245.24','192.168.245.24',tcp,35324)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -549,12 +549,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>netAccess('10.0.11.100',tcp,8080)</t>
+          <t>RULE 13 (direct network access)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>OR</t>
+          <t>AND</t>
         </is>
       </c>
     </row>
@@ -567,12 +567,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>RULE 15 (direct network access)</t>
+          <t>hacl('13.225.195.118','192.168.245.24',tcp,35324)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>AND</t>
+          <t>LEAF</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>hacl('10.0.20.66','10.0.11.100',tcp,8080)</t>
+          <t>attackerLocated('13.225.195.118')</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -603,7 +603,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>attackerLocated('10.0.20.66')</t>
+          <t>networkServiceInfo('192.168.245.24',microsoft,tcp,35324,andrew)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -621,102 +621,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>inCompetent('Bob')</t>
+          <t>vulExists('192.168.245.24','CVE-2012-0002',microsoft,remoteExploit,privEscalation)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>LEAF</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>11</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>RULE 21 (password sniffing)</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>AND</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>12</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>vulExists('10.0.11.100','CVE-2021-26868',scadabr,remoteExploit,privEscalation)</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>LEAF</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>13</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>RULE 8 (When a principal is compromised any machine he has an account on will also be compromised)</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>AND</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>14</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>canAccessHost('10.0.11.100')</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>OR</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>15</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>RULE 17 (Access a host through executing code on the machine)</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>AND</t>
         </is>
       </c>
     </row>

--- a/public_html/ADG/AGpredicates.xlsx
+++ b/public_html/ADG/AGpredicates.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,7 +459,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>execCode('192.168.245.24',andrew)</t>
+          <t>execCode('10.0.11.100',user)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,7 +477,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>RULE 9 (remote exploit of a server program)</t>
+          <t>RULE 10 (remote exploit of a server program)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -495,7 +495,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>netAccess('192.168.245.24',tcp,35324)</t>
+          <t>netAccess('10.0.11.100',tcp,8080)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -513,7 +513,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>RULE 12 (multi-hop access)</t>
+          <t>RULE 15 (direct network access)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>hacl('192.168.245.24','192.168.245.24',tcp,35324)</t>
+          <t>hacl('10.0.20.66','10.0.11.100',tcp,8080)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -549,12 +549,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>RULE 13 (direct network access)</t>
+          <t>attackerLocated('10.0.20.66')</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>AND</t>
+          <t>LEAF</t>
         </is>
       </c>
     </row>
@@ -567,7 +567,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>hacl('13.225.195.118','192.168.245.24',tcp,35324)</t>
+          <t>networkServiceInfo('10.0.11.100',scadabr,tcp,8080,user)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -585,7 +585,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>attackerLocated('13.225.195.118')</t>
+          <t>vulExists('10.0.11.100','CVE-2021-26828',scadabr,remoteExploit,privEscalation)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>networkServiceInfo('192.168.245.24',microsoft,tcp,35324,andrew)</t>
+          <t>RULE 11 (unrestricted upload of file with dangerous type)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LEAF</t>
+          <t>AND</t>
         </is>
       </c>
     </row>
@@ -621,12 +621,138 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>vulExists('192.168.245.24','CVE-2012-0002',microsoft,remoteExploit,privEscalation)</t>
+          <t>principalCompromised('Bob')</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>OR</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>RULE 2 (Bruteforce attack)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>AND</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>hasAccount('Bob','10.0.11.100',user)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>LEAF</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>inCompetent('Bob')</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>LEAF</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>RULE 21 (password sniffing)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>AND</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>RULE 8 (When a principal is compromised any machine he has an account on will also be compromised)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>AND</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>canAccessHost('10.0.11.100')</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>OR</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>RULE 17 (Access a host through executing code on the machine)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>AND</t>
         </is>
       </c>
     </row>

--- a/public_html/ADG/AGpredicates.xlsx
+++ b/public_html/ADG/AGpredicates.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,7 +459,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>execCode('10.0.11.100',user)</t>
+          <t>execCode('10.0.11.72',user)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -495,7 +495,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>netAccess('10.0.11.100',tcp,8080)</t>
+          <t>netAccess('10.0.11.72',tcp,22)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -513,7 +513,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>RULE 15 (direct network access)</t>
+          <t>RULE 14 (multi-hop access)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>hacl('10.0.20.66','10.0.11.100',tcp,8080)</t>
+          <t>hacl('10.0.11.100','10.0.11.72',tcp,22)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -549,12 +549,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>attackerLocated('10.0.20.66')</t>
+          <t>execCode('10.0.11.100',user)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LEAF</t>
+          <t>OR</t>
         </is>
       </c>
     </row>
@@ -567,12 +567,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>networkServiceInfo('10.0.11.100',scadabr,tcp,8080,user)</t>
+          <t>RULE 10 (remote exploit of a server program)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LEAF</t>
+          <t>AND</t>
         </is>
       </c>
     </row>
@@ -585,12 +585,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>vulExists('10.0.11.100','CVE-2021-26828',scadabr,remoteExploit,privEscalation)</t>
+          <t>netAccess('10.0.11.100',tcp,8080)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LEAF</t>
+          <t>OR</t>
         </is>
       </c>
     </row>
@@ -603,7 +603,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>RULE 11 (unrestricted upload of file with dangerous type)</t>
+          <t>RULE 15 (direct network access)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -621,12 +621,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>principalCompromised('Bob')</t>
+          <t>hacl('10.0.20.0','10.0.11.100',tcp,8080)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>OR</t>
+          <t>LEAF</t>
         </is>
       </c>
     </row>
@@ -639,12 +639,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>RULE 2 (Bruteforce attack)</t>
+          <t>attackerLocated('10.0.20.0')</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>AND</t>
+          <t>LEAF</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>hasAccount('Bob','10.0.11.100',user)</t>
+          <t>networkServiceInfo('10.0.11.100',scadabr,tcp,8080,user)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -675,7 +675,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>inCompetent('Bob')</t>
+          <t>vulExists('10.0.11.100','CVE-2021-26828',scadabr,remoteExploit,privEscalation)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>RULE 21 (password sniffing)</t>
+          <t>RULE 11 (unrestricted upload of file with dangerous type)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -711,12 +711,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>RULE 8 (When a principal is compromised any machine he has an account on will also be compromised)</t>
+          <t>principalCompromised('Bob')</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>AND</t>
+          <t>OR</t>
         </is>
       </c>
     </row>
@@ -729,12 +729,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>canAccessHost('10.0.11.100')</t>
+          <t>RULE 2 (Bruteforce attack)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>OR</t>
+          <t>AND</t>
         </is>
       </c>
     </row>
@@ -747,12 +747,138 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>hasAccount('Bob','10.0.11.100',user)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>LEAF</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>18</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>inCompetent('Bob')</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>LEAF</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>19</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>RULE 21 (password sniffing)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>AND</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>20</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>RULE 8 (When a principal is compromised any machine he has an account on will also be compromised)</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>AND</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>21</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>canAccessHost('10.0.11.100')</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>OR</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>22</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>RULE 17 (Access a host through executing code on the machine)</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>AND</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>23</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>networkServiceInfo('10.0.11.72',sshd,tcp,22,user)</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>LEAF</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>24</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>vulExists('10.0.11.72','CVE-2023-48795',sshd,remoteExploit,privEscalation)</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>LEAF</t>
         </is>
       </c>
     </row>

--- a/public_html/ADG/AGpredicates.xlsx
+++ b/public_html/ADG/AGpredicates.xlsx
@@ -855,7 +855,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>networkServiceInfo('10.0.11.72',sshd,tcp,22,user)</t>
+          <t>networkServiceInfo('10.0.11.72',openssh,tcp,22,user)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>vulExists('10.0.11.72','CVE-2023-48795',sshd,remoteExploit,privEscalation)</t>
+          <t>vulExists('10.0.11.72','CVE-2023-48795',openssh,remoteExploit,privEscalation)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">

--- a/public_html/ADG/AGpredicates.xlsx
+++ b/public_html/ADG/AGpredicates.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,7 +459,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>execCode('10.0.11.72',user)</t>
+          <t>physicalDamage(_)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,7 +477,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>RULE 10 (remote exploit of a server program)</t>
+          <t>RULE 3 (Physical damage)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -495,7 +495,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>netAccess('10.0.11.72',tcp,22)</t>
+          <t>modify('157.159.68.97',_)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -513,7 +513,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>RULE 14 (multi-hop access)</t>
+          <t>RULE 4 (Modify bus info)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -531,12 +531,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>hacl('10.0.11.100','10.0.11.72',tcp,22)</t>
+          <t>obtainControl('157.159.68.97',admin)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LEAF</t>
+          <t>OR</t>
         </is>
       </c>
     </row>
@@ -549,12 +549,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>execCode('10.0.11.100',user)</t>
+          <t>RULE 5 (Obtain control of network traffic)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>OR</t>
+          <t>AND</t>
         </is>
       </c>
     </row>
@@ -567,12 +567,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>RULE 10 (remote exploit of a server program)</t>
+          <t>ipv6Able('157.159.68.97')</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>AND</t>
+          <t>LEAF</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>netAccess('10.0.11.100',tcp,8080)</t>
+          <t>execCode('157.159.68.75',admin)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -603,7 +603,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>RULE 15 (direct network access)</t>
+          <t>RULE 6 (Remote login on host by reusing credentials)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -621,12 +621,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>hacl('10.0.20.0','10.0.11.100',tcp,8080)</t>
+          <t>harvestCredentials('157.159.68.125',admin)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LEAF</t>
+          <t>OR</t>
         </is>
       </c>
     </row>
@@ -639,12 +639,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>attackerLocated('10.0.20.0')</t>
+          <t>RULE 7 (Credentials harvesting of the last user connected remotely)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LEAF</t>
+          <t>AND</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>networkServiceInfo('10.0.11.100',scadabr,tcp,8080,user)</t>
+          <t>hasCredentialsOnMemory('157.159.68.125',admin)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -675,12 +675,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>vulExists('10.0.11.100','CVE-2021-26828',scadabr,remoteExploit,privEscalation)</t>
+          <t>execCode('157.159.68.125',olivia)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LEAF</t>
+          <t>OR</t>
         </is>
       </c>
     </row>
@@ -693,7 +693,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>RULE 11 (unrestricted upload of file with dangerous type)</t>
+          <t>RULE 10 (remote exploit of a server program)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>principalCompromised('Bob')</t>
+          <t>netAccess('157.159.68.125',tcp,'3389')</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>RULE 2 (Bruteforce attack)</t>
+          <t>RULE 14 (multi-hop access)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>hasAccount('Bob','10.0.11.100',user)</t>
+          <t>hacl('157.159.68.75','157.159.68.125',tcp,'3389')</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -765,12 +765,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>inCompetent('Bob')</t>
+          <t>RULE 15 (direct network access)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LEAF</t>
+          <t>AND</t>
         </is>
       </c>
     </row>
@@ -783,12 +783,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>RULE 21 (password sniffing)</t>
+          <t>attackerLocated('157.159.68.75')</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>AND</t>
+          <t>LEAF</t>
         </is>
       </c>
     </row>
@@ -801,12 +801,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>RULE 8 (When a principal is compromised any machine he has an account on will also be compromised)</t>
+          <t>networkServiceInfo('157.159.68.125','windows remote_desktop_protocol',tcp,'3389',olivia)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>AND</t>
+          <t>LEAF</t>
         </is>
       </c>
     </row>
@@ -819,12 +819,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>canAccessHost('10.0.11.100')</t>
+          <t>vulExists('157.159.68.125','CVE-2019-0708','windows remote_desktop_protocol',remoteExploit,privEscalation)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>OR</t>
+          <t>LEAF</t>
         </is>
       </c>
     </row>
@@ -837,12 +837,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>RULE 17 (Access a host through executing code on the machine)</t>
+          <t>networkServiceInfo('157.159.68.75',windows,tcp,'3389',admin)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>AND</t>
+          <t>LEAF</t>
         </is>
       </c>
     </row>
@@ -855,28 +855,10 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>networkServiceInfo('10.0.11.72',openssh,tcp,22,user)</t>
+          <t>isAdmin(admin)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
-        <is>
-          <t>LEAF</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>24</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>vulExists('10.0.11.72','CVE-2023-48795',openssh,remoteExploit,privEscalation)</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
         <is>
           <t>LEAF</t>
         </is>

--- a/public_html/ADG/AGpredicates.xlsx
+++ b/public_html/ADG/AGpredicates.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,7 +459,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>physicalDamage(_)</t>
+          <t>execCode('10.0.13.37',lea)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,7 +477,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>RULE 3 (Physical damage)</t>
+          <t>RULE 13 (remote exploit of a server program)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -495,7 +495,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>modify('157.159.68.97',_)</t>
+          <t>netAccess('10.0.13.37',tcp,22)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -513,7 +513,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>RULE 4 (Modify bus info)</t>
+          <t>RULE 17 (multi-hop access)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -531,12 +531,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>obtainControl('157.159.68.97',admin)</t>
+          <t>hacl('10.0.18.100','10.0.13.37',tcp,22)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>OR</t>
+          <t>LEAF</t>
         </is>
       </c>
     </row>
@@ -549,12 +549,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>RULE 5 (Obtain control of network traffic)</t>
+          <t>execCode('10.0.18.100',lea)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>AND</t>
+          <t>OR</t>
         </is>
       </c>
     </row>
@@ -567,12 +567,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ipv6Able('157.159.68.97')</t>
+          <t>RULE 11 (When a principal is compromised any machine he has an account on will also be compromised)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LEAF</t>
+          <t>AND</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>execCode('157.159.68.75',admin)</t>
+          <t>canAccessHost('10.0.18.100')</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -603,7 +603,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>RULE 6 (Remote login on host by reusing credentials)</t>
+          <t>RULE 20 (Access a host through executing code on the machine)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -621,12 +621,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>harvestCredentials('157.159.68.125',admin)</t>
+          <t>hasAccount(_,'10.0.18.100',lea)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>OR</t>
+          <t>LEAF</t>
         </is>
       </c>
     </row>
@@ -639,12 +639,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>RULE 7 (Credentials harvesting of the last user connected remotely)</t>
+          <t>principalCompromised(_)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>AND</t>
+          <t>OR</t>
         </is>
       </c>
     </row>
@@ -657,12 +657,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>hasCredentialsOnMemory('157.159.68.125',admin)</t>
+          <t>RULE 24 (password sniffing)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LEAF</t>
+          <t>AND</t>
         </is>
       </c>
     </row>
@@ -675,12 +675,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>execCode('157.159.68.125',olivia)</t>
+          <t>RULE 13 (remote exploit of a server program)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>OR</t>
+          <t>AND</t>
         </is>
       </c>
     </row>
@@ -693,12 +693,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>RULE 10 (remote exploit of a server program)</t>
+          <t>netAccess('10.0.18.100',tcp,8080)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>AND</t>
+          <t>OR</t>
         </is>
       </c>
     </row>
@@ -711,12 +711,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>netAccess('157.159.68.125',tcp,'3389')</t>
+          <t>RULE 17 (multi-hop access)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>OR</t>
+          <t>AND</t>
         </is>
       </c>
     </row>
@@ -729,12 +729,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>RULE 14 (multi-hop access)</t>
+          <t>hacl('10.0.13.151','10.0.18.100',tcp,8080)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>AND</t>
+          <t>LEAF</t>
         </is>
       </c>
     </row>
@@ -747,12 +747,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>hacl('157.159.68.75','157.159.68.125',tcp,'3389')</t>
+          <t>execCode('10.0.13.151',user)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LEAF</t>
+          <t>OR</t>
         </is>
       </c>
     </row>
@@ -765,7 +765,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>RULE 15 (direct network access)</t>
+          <t>RULE 13 (remote exploit of a server program)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -783,12 +783,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>attackerLocated('157.159.68.75')</t>
+          <t>netAccess('10.0.13.151',tcp,3389)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LEAF</t>
+          <t>OR</t>
         </is>
       </c>
     </row>
@@ -801,12 +801,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>networkServiceInfo('157.159.68.125','windows remote_desktop_protocol',tcp,'3389',olivia)</t>
+          <t>RULE 18 (direct network access)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LEAF</t>
+          <t>AND</t>
         </is>
       </c>
     </row>
@@ -819,7 +819,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>vulExists('157.159.68.125','CVE-2019-0708','windows remote_desktop_protocol',remoteExploit,privEscalation)</t>
+          <t>hacl('10.0.13.0','10.0.13.151',tcp,3389)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -837,7 +837,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>networkServiceInfo('157.159.68.75',windows,tcp,'3389',admin)</t>
+          <t>attackerLocated('10.0.13.0')</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -855,10 +855,478 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>isAdmin(admin)</t>
+          <t>networkServiceInfo('10.0.13.151',rdp,tcp,3389,user)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
+        <is>
+          <t>LEAF</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>24</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>vulExists('10.0.13.151','CVE-2019-0708',rdp,remoteExploit,privEscalation)</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>LEAF</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>25</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>RULE 17 (multi-hop access)</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>AND</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>26</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>hacl('10.0.13.30','10.0.18.100',tcp,8080)</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>LEAF</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>27</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>execCode('10.0.13.30',user)</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>OR</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>28</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>RULE 13 (remote exploit of a server program)</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>AND</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>29</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>netAccess('10.0.13.30',tcp,22)</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>OR</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>30</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>RULE 17 (multi-hop access)</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>AND</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>31</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>hacl('10.0.13.32','10.0.13.30',tcp,22)</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>LEAF</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>32</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>execCode('10.0.13.32',user)</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>OR</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>33</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>RULE 13 (remote exploit of a server program)</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>AND</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>34</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>netAccess('10.0.13.32',tcp,22)</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>OR</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>35</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>RULE 17 (multi-hop access)</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>AND</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>36</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>hacl('10.0.13.151','10.0.13.32',tcp,22)</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>LEAF</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>37</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>networkServiceInfo('10.0.13.32',openssh,tcp,22,user)</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>LEAF</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>38</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>vulExists('10.0.13.32','CVE-2023-48795',openssh,remoteExploit,privEscalation)</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>LEAF</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>39</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>networkServiceInfo('10.0.13.30',openssh,tcp,22,user)</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>LEAF</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>40</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>vulExists('10.0.13.30','CVE-2023-48795',openssh,remoteExploit,privEscalation)</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>LEAF</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>41</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>networkServiceInfo('10.0.18.100',scadabr,tcp,8080,lea)</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>LEAF</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>42</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>vulExists('10.0.18.100','CVE-2021-26828',scadabr,remoteExploit,privEscalation)</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>LEAF</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>43</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>RULE 5 (Keylogger)</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>AND</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>44</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>logOn('10.0.18.100',lea)</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>OR</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>45</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>RULE 4 (Keylogger)</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>AND</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>46</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>dos('10.0.13.30')</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>OR</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>47</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>RULE 3 (DoS)</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>AND</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>48</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>networkServiceInfo('10.0.13.37',openssh,tcp,22,lea)</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>LEAF</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>49</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>vulExists('10.0.13.37','CVE-2013-48795',openssh,remoteExploit,privEscalation)</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>LEAF</t>
         </is>

--- a/public_html/ADG/AGpredicates.xlsx
+++ b/public_html/ADG/AGpredicates.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>hacl('10.0.18.100','10.0.13.37',tcp,22)</t>
+          <t>hacl('10.0.13.30','10.0.13.37',tcp,22)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -549,7 +549,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>execCode('10.0.18.100',lea)</t>
+          <t>execCode('10.0.13.30',lea)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -567,7 +567,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>RULE 11 (When a principal is compromised any machine he has an account on will also be compromised)</t>
+          <t>RULE 13 (remote exploit of a server program)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -585,7 +585,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>canAccessHost('10.0.18.100')</t>
+          <t>netAccess('10.0.13.30',tcp,22)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -603,7 +603,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>RULE 20 (Access a host through executing code on the machine)</t>
+          <t>RULE 17 (multi-hop access)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>hasAccount(_,'10.0.18.100',lea)</t>
+          <t>hacl('10.0.13.32','10.0.13.30',tcp,22)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>principalCompromised(_)</t>
+          <t>execCode('10.0.13.32',user)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>RULE 24 (password sniffing)</t>
+          <t>RULE 13 (remote exploit of a server program)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -675,12 +675,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>RULE 13 (remote exploit of a server program)</t>
+          <t>netAccess('10.0.13.32',tcp,22)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>AND</t>
+          <t>OR</t>
         </is>
       </c>
     </row>
@@ -693,12 +693,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>netAccess('10.0.18.100',tcp,8080)</t>
+          <t>RULE 17 (multi-hop access)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>OR</t>
+          <t>AND</t>
         </is>
       </c>
     </row>
@@ -711,12 +711,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>RULE 17 (multi-hop access)</t>
+          <t>hacl('10.0.13.151','10.0.13.32',tcp,22)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>AND</t>
+          <t>LEAF</t>
         </is>
       </c>
     </row>
@@ -729,12 +729,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>hacl('10.0.13.151','10.0.18.100',tcp,8080)</t>
+          <t>execCode('10.0.13.151',user)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LEAF</t>
+          <t>OR</t>
         </is>
       </c>
     </row>
@@ -747,12 +747,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>execCode('10.0.13.151',user)</t>
+          <t>RULE 13 (remote exploit of a server program)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>OR</t>
+          <t>AND</t>
         </is>
       </c>
     </row>
@@ -765,12 +765,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>RULE 13 (remote exploit of a server program)</t>
+          <t>netAccess('10.0.13.151',tcp,3389)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>AND</t>
+          <t>OR</t>
         </is>
       </c>
     </row>
@@ -783,12 +783,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>netAccess('10.0.13.151',tcp,3389)</t>
+          <t>RULE 18 (direct network access)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>OR</t>
+          <t>AND</t>
         </is>
       </c>
     </row>
@@ -801,12 +801,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>RULE 18 (direct network access)</t>
+          <t>hacl('10.0.13.0','10.0.13.151',tcp,3389)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>AND</t>
+          <t>LEAF</t>
         </is>
       </c>
     </row>
@@ -819,7 +819,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>hacl('10.0.13.0','10.0.13.151',tcp,3389)</t>
+          <t>attackerLocated('10.0.13.0')</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -837,7 +837,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>attackerLocated('10.0.13.0')</t>
+          <t>networkServiceInfo('10.0.13.151',rdp,tcp,3389,user)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>networkServiceInfo('10.0.13.151',rdp,tcp,3389,user)</t>
+          <t>vulExists('10.0.13.151','CVE-2019-0708',rdp,remoteExploit,privEscalation)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>vulExists('10.0.13.151','CVE-2019-0708',rdp,remoteExploit,privEscalation)</t>
+          <t>networkServiceInfo('10.0.13.32',openssh,tcp,22,user)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -891,12 +891,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>RULE 17 (multi-hop access)</t>
+          <t>vulExists('10.0.13.32','CVE-2023-48795',openssh,remoteExploit,privEscalation)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>AND</t>
+          <t>LEAF</t>
         </is>
       </c>
     </row>
@@ -909,12 +909,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>hacl('10.0.13.30','10.0.18.100',tcp,8080)</t>
+          <t>RULE 17 (multi-hop access)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LEAF</t>
+          <t>AND</t>
         </is>
       </c>
     </row>
@@ -927,12 +927,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>execCode('10.0.13.30',user)</t>
+          <t>hacl('10.0.18.100','10.0.13.30',tcp,22)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>OR</t>
+          <t>LEAF</t>
         </is>
       </c>
     </row>
@@ -945,12 +945,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>RULE 13 (remote exploit of a server program)</t>
+          <t>execCode('10.0.18.100',lea)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>AND</t>
+          <t>OR</t>
         </is>
       </c>
     </row>
@@ -963,12 +963,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>netAccess('10.0.13.30',tcp,22)</t>
+          <t>RULE 11 (When a principal is compromised any machine he has an account on will also be compromised)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>OR</t>
+          <t>AND</t>
         </is>
       </c>
     </row>
@@ -981,12 +981,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>RULE 17 (multi-hop access)</t>
+          <t>canAccessHost('10.0.18.100')</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>AND</t>
+          <t>OR</t>
         </is>
       </c>
     </row>
@@ -999,12 +999,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>hacl('10.0.13.32','10.0.13.30',tcp,22)</t>
+          <t>RULE 20 (Access a host through executing code on the machine)</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LEAF</t>
+          <t>AND</t>
         </is>
       </c>
     </row>
@@ -1017,12 +1017,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>execCode('10.0.13.32',user)</t>
+          <t>hasAccount(_,'10.0.18.100',lea)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>OR</t>
+          <t>LEAF</t>
         </is>
       </c>
     </row>
@@ -1035,12 +1035,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>RULE 13 (remote exploit of a server program)</t>
+          <t>principalCompromised(_)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>AND</t>
+          <t>OR</t>
         </is>
       </c>
     </row>
@@ -1053,12 +1053,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>netAccess('10.0.13.32',tcp,22)</t>
+          <t>RULE 24 (password sniffing)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>OR</t>
+          <t>AND</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>RULE 17 (multi-hop access)</t>
+          <t>RULE 13 (remote exploit of a server program)</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1089,12 +1089,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>hacl('10.0.13.151','10.0.13.32',tcp,22)</t>
+          <t>netAccess('10.0.18.100',tcp,8080)</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>LEAF</t>
+          <t>OR</t>
         </is>
       </c>
     </row>
@@ -1107,12 +1107,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>networkServiceInfo('10.0.13.32',openssh,tcp,22,user)</t>
+          <t>RULE 17 (multi-hop access)</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LEAF</t>
+          <t>AND</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>vulExists('10.0.13.32','CVE-2023-48795',openssh,remoteExploit,privEscalation)</t>
+          <t>hacl('10.0.13.151','10.0.18.100',tcp,8080)</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1143,12 +1143,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>networkServiceInfo('10.0.13.30',openssh,tcp,22,user)</t>
+          <t>RULE 17 (multi-hop access)</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LEAF</t>
+          <t>AND</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>vulExists('10.0.13.30','CVE-2023-48795',openssh,remoteExploit,privEscalation)</t>
+          <t>hacl('10.0.13.30','10.0.18.100',tcp,8080)</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1179,12 +1179,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>networkServiceInfo('10.0.18.100',scadabr,tcp,8080,lea)</t>
+          <t>RULE 17 (multi-hop access)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>LEAF</t>
+          <t>AND</t>
         </is>
       </c>
     </row>
@@ -1197,12 +1197,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>vulExists('10.0.18.100','CVE-2021-26828',scadabr,remoteExploit,privEscalation)</t>
+          <t>execCode('10.0.13.30',user)</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>LEAF</t>
+          <t>OR</t>
         </is>
       </c>
     </row>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>RULE 5 (Keylogger)</t>
+          <t>RULE 13 (remote exploit of a server program)</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1233,12 +1233,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>logOn('10.0.18.100',lea)</t>
+          <t>networkServiceInfo('10.0.13.30',openssh,tcp,22,user)</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>OR</t>
+          <t>LEAF</t>
         </is>
       </c>
     </row>
@@ -1251,12 +1251,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>RULE 4 (Keylogger)</t>
+          <t>vulExists('10.0.13.30','CVE-2023-48795',openssh,remoteExploit,privEscalation)</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>AND</t>
+          <t>LEAF</t>
         </is>
       </c>
     </row>
@@ -1269,12 +1269,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>dos('10.0.13.30')</t>
+          <t>networkServiceInfo('10.0.18.100',scadabr,tcp,8080,lea)</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>OR</t>
+          <t>LEAF</t>
         </is>
       </c>
     </row>
@@ -1287,12 +1287,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>RULE 3 (DoS)</t>
+          <t>vulExists('10.0.18.100','CVE-2021-26828',scadabr,remoteExploit,privEscalation)</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>AND</t>
+          <t>LEAF</t>
         </is>
       </c>
     </row>
@@ -1305,12 +1305,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>networkServiceInfo('10.0.13.37',openssh,tcp,22,lea)</t>
+          <t>RULE 5 (Keylogger)</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>LEAF</t>
+          <t>AND</t>
         </is>
       </c>
     </row>
@@ -1323,10 +1323,154 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>vulExists('10.0.13.37','CVE-2013-48795',openssh,remoteExploit,privEscalation)</t>
+          <t>logOn('10.0.18.100',lea)</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
+        <is>
+          <t>OR</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>50</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>RULE 4 (Keylogger)</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>AND</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>51</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>dos('10.0.13.30')</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>OR</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>52</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>RULE 3 (DoS)</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>AND</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>53</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>RULE 3 (DoS)</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>AND</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>54</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>networkServiceInfo('10.0.13.30',openssh,tcp,22,lea)</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>LEAF</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>55</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>RULE 17 (multi-hop access)</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>AND</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>56</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>networkServiceInfo('10.0.13.37',openssh,tcp,22,lea)</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>LEAF</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>57</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>vulExists('10.0.13.37','CVE-2023-48795',openssh,remoteExploit,privEscalation)</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>LEAF</t>
         </is>
